--- a/datascrapper/usa/new_york/new_york/gyms.xlsx
+++ b/datascrapper/usa/new_york/new_york/gyms.xlsx
@@ -519,289 +519,289 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>DOGPOUND Gym, Personal Training &amp; Group Fitness Classes</v>
+        <v>Powerhouse Gym Long Island City</v>
       </c>
       <c r="B6" t="str">
-        <v>http://thedogpound.com/</v>
+        <v>https://www.powerhousegymlic.net/</v>
       </c>
       <c r="C6" t="str">
-        <v>(646) 620-6533</v>
+        <v>(347) 937-3030</v>
       </c>
       <c r="D6" t="str">
         <v/>
       </c>
       <c r="E6">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="F6" t="str">
-        <v>40.7245092, -74.0087489</v>
+        <v>40.7511444, -73.9335708</v>
       </c>
       <c r="G6" t="str">
-        <v>1 Renwick St, New York, NY 10013, USA</v>
+        <v>30-30 Northern Blvd, Long Island City, NY 11101, USA</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Mid City Gym &amp; Tanning</v>
+        <v>Life Time One Wall Street</v>
       </c>
       <c r="B7" t="str">
-        <v>https://midcitygym.com/</v>
+        <v>https://www.lifetime.life/locations/ny/one-wall-street.html?utm_source=google&amp;utm_medium=local&amp;utm_campaign=google-local-club</v>
       </c>
       <c r="C7" t="str">
-        <v>(212) 757-0850</v>
+        <v>(212) 671-7100</v>
       </c>
       <c r="D7" t="str">
         <v/>
       </c>
       <c r="E7">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="F7" t="str">
-        <v>40.758403699999995, -73.9915542</v>
+        <v>40.7067803, -74.0120018</v>
       </c>
       <c r="G7" t="str">
-        <v>345 W 42nd St, New York, NY 10036, USA</v>
+        <v>29 New St, New York, NY 10005, USA</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>GYM NYC Lexington</v>
+        <v>Crunch Fitness - 34th Street</v>
       </c>
       <c r="B8" t="str">
-        <v>https://gym-nyc.com/</v>
+        <v>https://www.crunch.com/locations/e-34th-st</v>
       </c>
       <c r="C8" t="str">
-        <v>(646) 308-0192</v>
+        <v>(212) 545-9757</v>
       </c>
       <c r="D8" t="str">
         <v/>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="F8" t="str">
-        <v>40.7447337, -73.98133829999999</v>
+        <v>40.7449717, -73.9770424</v>
       </c>
       <c r="G8" t="str">
-        <v>131 E 31st St, New York, NY 10016, USA</v>
+        <v>222 E 34th St, New York, NY 10016, USA</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Life Time One Wall Street</v>
+        <v>DOGPOUND Gym, Personal Training &amp; Group Fitness Classes</v>
       </c>
       <c r="B9" t="str">
-        <v>https://www.lifetime.life/locations/ny/one-wall-street.html?utm_source=google&amp;utm_medium=local&amp;utm_campaign=google-local-club</v>
+        <v>http://thedogpound.com/</v>
       </c>
       <c r="C9" t="str">
-        <v>(212) 671-7100</v>
+        <v>(646) 620-6533</v>
       </c>
       <c r="D9" t="str">
         <v/>
       </c>
       <c r="E9">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="F9" t="str">
-        <v>40.7067803, -74.0120018</v>
+        <v>40.7245092, -74.0087489</v>
       </c>
       <c r="G9" t="str">
-        <v>29 New St, New York, NY 10005, USA</v>
+        <v>1 Renwick St, New York, NY 10013, USA</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Powerhouse Gym Long Island City</v>
+        <v>Crunch Fitness - 54th Street</v>
       </c>
       <c r="B10" t="str">
-        <v>https://www.powerhousegymlic.net/</v>
+        <v>https://www.crunch.com/locations/w-54th-st</v>
       </c>
       <c r="C10" t="str">
-        <v>(347) 937-3030</v>
+        <v>(212) 307-7760</v>
       </c>
       <c r="D10" t="str">
         <v/>
       </c>
       <c r="E10">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="F10" t="str">
-        <v>40.7511444, -73.9335708</v>
+        <v>40.7643104, -73.9835317</v>
       </c>
       <c r="G10" t="str">
-        <v>30-30 Northern Blvd, Long Island City, NY 11101, USA</v>
+        <v>250 W 54th St, New York, NY 10019, USA</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>CompleteBody Midtown East</v>
+        <v>Crunch Fitness - FiDi</v>
       </c>
       <c r="B11" t="str">
-        <v>https://www.completebody.com/completebody-midtown-east/</v>
+        <v>https://www.crunch.com/locations/fidi</v>
       </c>
       <c r="C11" t="str">
-        <v>(212) 777-7703</v>
+        <v>(212) 308-5824</v>
       </c>
       <c r="D11" t="str">
         <v/>
       </c>
       <c r="E11">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="F11" t="str">
-        <v>40.7593798, -73.9646707</v>
+        <v>40.7084471, -74.00976299999999</v>
       </c>
       <c r="G11" t="str">
-        <v>301 E 57th St, New York, NY 10022, USA</v>
+        <v>140 Broadway, New York, NY 10005, USA</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>GYM NYC East 3rd St.</v>
+        <v>Mid City Gym &amp; Tanning</v>
       </c>
       <c r="B12" t="str">
-        <v>http://e3gym.nyc/</v>
+        <v>https://midcitygym.com/</v>
       </c>
       <c r="C12" t="str">
-        <v>(646) 678-5005</v>
+        <v>(212) 757-0850</v>
       </c>
       <c r="D12" t="str">
         <v/>
       </c>
       <c r="E12">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="F12" t="str">
-        <v>40.723565199999996, -73.98483</v>
+        <v>40.758403699999995, -73.9915542</v>
       </c>
       <c r="G12" t="str">
-        <v>155 E 3rd St, New York, NY 10009, USA</v>
+        <v>345 W 42nd St, New York, NY 10036, USA</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Crunch Fitness - 34th Street</v>
+        <v>GYM NYC Lexington</v>
       </c>
       <c r="B13" t="str">
-        <v>https://www.crunch.com/locations/e-34th-st</v>
+        <v>https://gym-nyc.com/</v>
       </c>
       <c r="C13" t="str">
-        <v>(212) 545-9757</v>
+        <v>(646) 308-0192</v>
       </c>
       <c r="D13" t="str">
         <v/>
       </c>
       <c r="E13">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="F13" t="str">
-        <v>40.7449717, -73.9770424</v>
+        <v>40.7447337, -73.98133829999999</v>
       </c>
       <c r="G13" t="str">
-        <v>222 E 34th St, New York, NY 10016, USA</v>
+        <v>131 E 31st St, New York, NY 10016, USA</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Powerhouse Gym 158 W. 27th Street Manhattan</v>
+        <v>CompleteBody Midtown East</v>
       </c>
       <c r="B14" t="str">
-        <v>https://www.powerhousegymnyc.com/</v>
+        <v>https://www.completebody.com/completebody-midtown-east/</v>
       </c>
       <c r="C14" t="str">
-        <v>(646) 429-9278</v>
+        <v>(212) 777-7703</v>
       </c>
       <c r="D14" t="str">
         <v/>
       </c>
       <c r="E14">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="F14" t="str">
-        <v>40.746199999999995, -73.9934323</v>
+        <v>40.7593798, -73.9646707</v>
       </c>
       <c r="G14" t="str">
-        <v>158 W 27th St, New York, NY 10001, USA</v>
+        <v>301 E 57th St, New York, NY 10022, USA</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Oculus Fitness</v>
+        <v>GYM NYC East 3rd St.</v>
       </c>
       <c r="B15" t="str">
-        <v>http://www.oculusfitness.com/</v>
+        <v>http://e3gym.nyc/</v>
       </c>
       <c r="C15" t="str">
-        <v>(646) 832-4788</v>
+        <v>(646) 678-5005</v>
       </c>
       <c r="D15" t="str">
         <v/>
       </c>
       <c r="E15">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="F15" t="str">
-        <v>40.7097951, -74.0063052</v>
+        <v>40.723565199999996, -73.98483</v>
       </c>
       <c r="G15" t="str">
-        <v>151 William St, New York, NY 10038, USA</v>
+        <v>155 E 3rd St, New York, NY 10009, USA</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Crunch Fitness - FiDi</v>
+        <v>Powerhouse Gym 158 W. 27th Street Manhattan</v>
       </c>
       <c r="B16" t="str">
-        <v>https://www.crunch.com/locations/fidi</v>
+        <v>https://www.powerhousegymnyc.com/</v>
       </c>
       <c r="C16" t="str">
-        <v>(212) 308-5824</v>
+        <v>(646) 429-9278</v>
       </c>
       <c r="D16" t="str">
         <v/>
       </c>
       <c r="E16">
-        <v>4.1</v>
+        <v>5</v>
       </c>
       <c r="F16" t="str">
-        <v>40.7084471, -74.00976299999999</v>
+        <v>40.746199999999995, -73.9934323</v>
       </c>
       <c r="G16" t="str">
-        <v>140 Broadway, New York, NY 10005, USA</v>
+        <v>158 W 27th St, New York, NY 10001, USA</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Crunch Fitness - 54th Street</v>
+        <v>The Strength Club NYC</v>
       </c>
       <c r="B17" t="str">
-        <v>https://www.crunch.com/locations/w-54th-st</v>
+        <v>https://www.thestrengthclub.com/</v>
       </c>
       <c r="C17" t="str">
-        <v>(212) 307-7760</v>
+        <v/>
       </c>
       <c r="D17" t="str">
         <v/>
       </c>
       <c r="E17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F17" t="str">
-        <v>40.7643104, -73.9835317</v>
+        <v>40.7446197, -73.9868379</v>
       </c>
       <c r="G17" t="str">
-        <v>250 W 54th St, New York, NY 10019, USA</v>
+        <v>1 E 28th St # 5b, New York, NY 10016, USA</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>SWEAT440 Fitness FiDi</v>
+        <v>Oculus Fitness</v>
       </c>
       <c r="B18" t="str">
-        <v>https://sweat440.com/gyms/new-york/financial-district-10038/?utm_source=GMB&amp;utm_medium=organic&amp;utm_campaign=FiDi</v>
+        <v>http://www.oculusfitness.com/</v>
       </c>
       <c r="C18" t="str">
-        <v>(888) 507-9328</v>
+        <v>(646) 832-4788</v>
       </c>
       <c r="D18" t="str">
         <v/>
@@ -810,79 +810,79 @@
         <v>4.9</v>
       </c>
       <c r="F18" t="str">
-        <v>40.708317799999996, -74.0068091</v>
+        <v>40.7097951, -74.0063052</v>
       </c>
       <c r="G18" t="str">
-        <v>80 John St, New York, NY 10038, USA</v>
+        <v>151 William St, New York, NY 10038, USA</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Mercedes Club</v>
+        <v>New York Sports Club</v>
       </c>
       <c r="B19" t="str">
-        <v>http://www.themercedesclub.com/</v>
+        <v>https://www.newyorksportsclubs.com/clubs/23rd-park</v>
       </c>
       <c r="C19" t="str">
-        <v>(212) 265-1111</v>
+        <v>(212) 982-4400</v>
       </c>
       <c r="D19" t="str">
         <v/>
       </c>
       <c r="E19">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="F19" t="str">
-        <v>40.767725299999995, -73.9915642</v>
+        <v>40.7401753, -73.98571729999999</v>
       </c>
       <c r="G19" t="str">
-        <v>550 W 54th St, New York, NY 10019, USA</v>
+        <v>113 E 23rd St, New York, NY 10010, USA</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Manhattan Plaza Health Club</v>
+        <v>Gym U NYC</v>
       </c>
       <c r="B20" t="str">
-        <v>http://www.mphc.com/</v>
+        <v>http://gymunyc.com/</v>
       </c>
       <c r="C20" t="str">
-        <v>(646) 590-4411</v>
+        <v>(646) 410-2858</v>
       </c>
       <c r="D20" t="str">
         <v/>
       </c>
       <c r="E20">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="F20" t="str">
-        <v>40.7599419, -73.9946078</v>
+        <v>40.7445928, -73.9961144</v>
       </c>
       <c r="G20" t="str">
-        <v>482 W 43rd St 2nd floor, New York, NY 10036, USA</v>
+        <v>215 W 23rd St, New York, NY 10011, USA</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>CompleteBody Financial District</v>
+        <v>SWEAT440 Fitness FiDi</v>
       </c>
       <c r="B21" t="str">
-        <v>https://www.completebody.com/completebody-financial-district/</v>
+        <v>https://sweat440.com/gyms/new-york/financial-district-10038/?utm_source=GMB&amp;utm_medium=organic&amp;utm_campaign=FiDi</v>
       </c>
       <c r="C21" t="str">
-        <v>(212) 777-7702</v>
+        <v>(888) 507-9328</v>
       </c>
       <c r="D21" t="str">
         <v/>
       </c>
       <c r="E21">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="F21" t="str">
-        <v>40.7046069, -74.0088274</v>
+        <v>40.708317799999996, -74.0068091</v>
       </c>
       <c r="G21" t="str">
-        <v>10 Hanover Square, New York, NY 10005, USA</v>
+        <v>80 John St, New York, NY 10038, USA</v>
       </c>
     </row>
   </sheetData>
